--- a/content/plataformes/dadesref/entitats/Codis_Territori_Consells_Comarcals.xlsx
+++ b/content/plataformes/dadesref/entitats/Codis_Territori_Consells_Comarcals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat.sharepoint.com/sites/GovernanaArquitecturaCloudiSI-60_ARQDades/Documents compartits/60_ARQ Dades/20 Cataleg/60 Modelatge/___Consells_Comarcals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BB754-ACE6-47CE-99D9-A9347EBC41E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3E4BB754-ACE6-47CE-99D9-A9347EBC41E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25247B6D-EC73-42F7-94B4-FE164EF9D0FB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consells Comarcals" sheetId="1" r:id="rId1"/>
@@ -31,20 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Codi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la taula: </t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Codis_Territori_Consells_Comarcals</t>
-  </si>
-  <si>
     <t>Alt Camp</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Baix Penedès</t>
   </si>
   <si>
-    <t>Barcelonès</t>
-  </si>
-  <si>
     <t>Berguedà</t>
   </si>
   <si>
@@ -306,7 +297,10 @@
     <t>9999999999</t>
   </si>
   <si>
-    <t>8101360009</t>
+    <t xml:space="preserve">Nom entitat: </t>
+  </si>
+  <si>
+    <t>Consells Comarcals</t>
   </si>
 </sst>
 </file>
@@ -521,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B46" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
@@ -793,396 +787,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="2"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>88</v>
+      <c r="B46" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B16 B46:B47 B18:B45 B17 C17 A4:A47 C4:C16 C18:C45" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B16 B45:B46 B17:B44 A4:A16 A17:A46" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1191,25 +1171,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
-    <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <xsd:import namespace="857edd72-1fa1-43ec-b599-5660574b73e4"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005229F264C8D17E4290704F0F03417427" ma:contentTypeVersion="13" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="ac169daa989162207de05ae2f3cbb827">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae060729-66f1-4cea-a45e-be2331389c13" xmlns:ns3="6ce25027-e1b1-4004-8de8-eb0ea08907a2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15797c83b6469b8d9c3bdf2b5b73d1a6" ns2:_="" ns3:_="">
+    <xsd:import namespace="ae060729-66f1-4cea-a45e-be2331389c13"/>
+    <xsd:import namespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1218,8 +1183,16 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1227,7 +1200,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f3aff557-982a-455c-8bbc-92c71da94542" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ae060729-66f1-4cea-a45e-be2331389c13" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1240,11 +1213,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetes de la imatge" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d19f90c4-00d9-45b7-bc62-04f95cbe7a8b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="857edd72-1fa1-43ec-b599-5660574b73e4" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6ce25027-e1b1-4004-8de8-eb0ea08907a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1263,7 +1280,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1280,8 +1297,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1370,12 +1387,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ae060729-66f1-4cea-a45e-be2331389c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{367B9BD9-DD85-43F5-B98A-EE040C05A019}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1390,10 +1422,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ae060729-66f1-4cea-a45e-be2331389c13"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCE1B5C-AB63-4D43-9FBC-D25B47DBE1EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>